--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E930EBC-B634-4B6F-AB94-9B115FE2A4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B382D7-46B5-4C43-B2A1-69D32654E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4275" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,6 +547,14 @@
         <v>4</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>32.834615966742597</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35.08</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B382D7-46B5-4C43-B2A1-69D32654E8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E26D5-1563-4CEB-9DB3-B00C740DACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
   <si>
     <t>WIND</t>
   </si>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,6 +554,15 @@
       <c r="B10" s="1">
         <v>35.08</v>
       </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C3E26D5-1563-4CEB-9DB3-B00C740DACD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F0250-3563-4A26-8835-90333ECA0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4275" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,7 +382,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +436,7 @@
         <v>34.869821864637203</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -453,7 +453,7 @@
         <v>34.869785777279603</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -470,7 +470,7 @@
         <v>34.860583501081898</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -555,7 +555,7 @@
         <v>35.08</v>
       </c>
       <c r="C10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>0</v>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637F0250-3563-4A26-8835-90333ECA0954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D530B5-9C8F-41EA-BBA2-8ACA69F6F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="1245" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4455" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,22 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
-  <si>
-    <t>WIND</t>
-  </si>
-  <si>
-    <t>Bachau</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
-  </si>
-  <si>
-    <t>Rewa</t>
-  </si>
-  <si>
-    <t>Bhuj</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="6">
   <si>
     <t>lat</t>
   </si>
@@ -59,14 +44,14 @@
   <si>
     <t>area</t>
   </si>
+  <si>
+    <t>Shmron</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000000000000000"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,9 +81,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,189 +363,1036 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>32.192570016218703</v>
-      </c>
-      <c r="B2" s="1">
-        <v>34.879637625914803</v>
+      <c r="A2">
+        <v>35.042763000000001</v>
+      </c>
+      <c r="B2">
+        <v>32.247452000000003</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>32.192570016218703</v>
-      </c>
-      <c r="B3" s="1">
-        <v>34.869821864637203</v>
+      <c r="A3">
+        <v>35.047854999999998</v>
+      </c>
+      <c r="B3">
+        <v>32.243285999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>32.188691433645303</v>
-      </c>
-      <c r="B4" s="1">
-        <v>34.869785777279603</v>
+      <c r="A4">
+        <v>35.051341999999998</v>
+      </c>
+      <c r="B4">
+        <v>32.242579999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>32.190707095610797</v>
-      </c>
-      <c r="B5" s="1">
-        <v>34.860583501081898</v>
+      <c r="A5">
+        <v>35.051322999999996</v>
+      </c>
+      <c r="B5">
+        <v>32.242553999999998</v>
       </c>
       <c r="C5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>32.831769227480002</v>
-      </c>
-      <c r="B6" s="1">
-        <v>35.066811173271098</v>
+      <c r="A6">
+        <v>35.008330999999998</v>
+      </c>
+      <c r="B6">
+        <v>32.195805</v>
       </c>
       <c r="C6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>32.833663166843102</v>
-      </c>
-      <c r="B7" s="1">
-        <v>35.067228580614497</v>
+      <c r="A7">
+        <v>35.011901999999999</v>
+      </c>
+      <c r="B7">
+        <v>32.199584999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>32.833102003835897</v>
-      </c>
-      <c r="B8" s="1">
-        <v>35.064814574811599</v>
+      <c r="A8">
+        <v>35.009158999999997</v>
+      </c>
+      <c r="B8">
+        <v>32.19849</v>
       </c>
       <c r="C8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>32.834615966742597</v>
-      </c>
-      <c r="B9" s="1">
-        <v>35.065990272162303</v>
+      <c r="A9">
+        <v>35.006588000000001</v>
+      </c>
+      <c r="B9">
+        <v>32.199309999999997</v>
       </c>
       <c r="C9" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>32.834615966742597</v>
-      </c>
-      <c r="B10" s="1">
-        <v>35.08</v>
+      <c r="A10">
+        <v>35.010544000000003</v>
+      </c>
+      <c r="B10">
+        <v>32.194961999999997</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35.010688999999999</v>
+      </c>
+      <c r="B11">
+        <v>32.197102000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>35.115482</v>
+      </c>
+      <c r="B12">
+        <v>32.149985999999998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>35.116244999999999</v>
+      </c>
+      <c r="B13">
+        <v>32.153626000000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>35.115302999999997</v>
+      </c>
+      <c r="B14">
+        <v>32.152264000000002</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>35.114238999999998</v>
+      </c>
+      <c r="B15">
+        <v>32.149619999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>35.113669999999999</v>
+      </c>
+      <c r="B16">
+        <v>32.147635999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>35.113827000000001</v>
+      </c>
+      <c r="B17">
+        <v>32.147945</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>35.101852000000001</v>
+      </c>
+      <c r="B18">
+        <v>32.154221</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>35.101447999999998</v>
+      </c>
+      <c r="B19">
+        <v>32.154269999999997</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35.105258999999997</v>
+      </c>
+      <c r="B20">
+        <v>32.143977999999997</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>35.105251000000003</v>
+      </c>
+      <c r="B21">
+        <v>32.144005</v>
+      </c>
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>35.128284999999998</v>
+      </c>
+      <c r="B22">
+        <v>32.118416000000003</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>35.129654000000002</v>
+      </c>
+      <c r="B23">
+        <v>32.116028</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>35.127419000000003</v>
+      </c>
+      <c r="B24">
+        <v>32.117600000000003</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>35.115729999999999</v>
+      </c>
+      <c r="B25">
+        <v>32.115684999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>35.113791999999997</v>
+      </c>
+      <c r="B26">
+        <v>32.116467</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>35.117516000000002</v>
+      </c>
+      <c r="B27">
+        <v>32.114322999999999</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>35.108677</v>
+      </c>
+      <c r="B28">
+        <v>32.108378999999999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>35.107883999999999</v>
+      </c>
+      <c r="B29">
+        <v>32.108787999999997</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>35.105350999999999</v>
+      </c>
+      <c r="B30">
+        <v>32.110424000000002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>35.103794000000001</v>
+      </c>
+      <c r="B31">
+        <v>32.114657999999999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>35.104992000000003</v>
+      </c>
+      <c r="B32">
+        <v>32.105269999999997</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>35.105541000000002</v>
+      </c>
+      <c r="B33">
+        <v>32.106791999999999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>35.118141000000001</v>
+      </c>
+      <c r="B34">
+        <v>32.110881999999997</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>35.049294000000003</v>
+      </c>
+      <c r="B35">
+        <v>32.121487000000002</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35.045948000000003</v>
+      </c>
+      <c r="B36">
+        <v>32.121093999999999</v>
+      </c>
+      <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35.047165</v>
+      </c>
+      <c r="B37">
+        <v>32.119788999999997</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35.047367000000001</v>
+      </c>
+      <c r="B38">
+        <v>32.119705000000003</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>35.043689999999998</v>
+      </c>
+      <c r="B39">
+        <v>32.116081000000001</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>35.051983</v>
+      </c>
+      <c r="B40">
+        <v>32.061855000000001</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>35.050426999999999</v>
+      </c>
+      <c r="B41">
+        <v>32.059939999999997</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>35.047131</v>
+      </c>
+      <c r="B42">
+        <v>32.066273000000002</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>35.047137999999997</v>
+      </c>
+      <c r="B43">
+        <v>32.066291999999997</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>35.049197999999997</v>
+      </c>
+      <c r="B44">
+        <v>32.067855999999999</v>
+      </c>
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>35.057079000000002</v>
+      </c>
+      <c r="B45">
+        <v>32.070808</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>35.061241000000003</v>
+      </c>
+      <c r="B46">
+        <v>32.070751000000001</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>35.064231999999997</v>
+      </c>
+      <c r="B47">
+        <v>32.073791999999997</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>35.087864000000003</v>
+      </c>
+      <c r="B48">
+        <v>32.079822999999998</v>
+      </c>
+      <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>35.084933999999997</v>
+      </c>
+      <c r="B49">
+        <v>32.079734999999999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>35.085498999999999</v>
+      </c>
+      <c r="B50">
+        <v>32.078730999999998</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>35.092486999999998</v>
+      </c>
+      <c r="B51">
+        <v>32.082329000000001</v>
+      </c>
+      <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>35.090054000000002</v>
+      </c>
+      <c r="B52">
+        <v>32.082965999999999</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>35.236828000000003</v>
+      </c>
+      <c r="B53">
+        <v>32.098564000000003</v>
+      </c>
+      <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>35.257351</v>
+      </c>
+      <c r="B54">
+        <v>32.1036</v>
+      </c>
+      <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>35.257347000000003</v>
+      </c>
+      <c r="B55">
+        <v>32.103596000000003</v>
+      </c>
+      <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>35.251190000000001</v>
+      </c>
+      <c r="B56">
+        <v>32.116947000000003</v>
+      </c>
+      <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>35.251204999999999</v>
+      </c>
+      <c r="B57">
+        <v>32.116970000000002</v>
+      </c>
+      <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>35.251133000000003</v>
+      </c>
+      <c r="B58">
+        <v>32.118941999999997</v>
+      </c>
+      <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>35.342193999999999</v>
+      </c>
+      <c r="B59">
+        <v>32.089652999999998</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>35.342185999999998</v>
+      </c>
+      <c r="B60">
+        <v>32.089657000000003</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D530B5-9C8F-41EA-BBA2-8ACA69F6F787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2DFA87-CD2F-41B6-8C14-24C679252668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4455" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6300" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,6 @@
     <t>lat</t>
   </si>
   <si>
-    <t>lng</t>
-  </si>
-  <si>
     <t>fuel</t>
   </si>
   <si>
@@ -46,6 +43,9 @@
   </si>
   <si>
     <t>Shmron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lng </t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -377,19 +377,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -400,13 +400,13 @@
         <v>32.247452000000003</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -417,13 +417,13 @@
         <v>32.243285999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -434,13 +434,13 @@
         <v>32.242579999999997</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -451,13 +451,13 @@
         <v>32.242553999999998</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -468,13 +468,13 @@
         <v>32.195805</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -485,13 +485,13 @@
         <v>32.199584999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -502,13 +502,13 @@
         <v>32.19849</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -519,13 +519,13 @@
         <v>32.199309999999997</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -536,13 +536,13 @@
         <v>32.194961999999997</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,13 +553,13 @@
         <v>32.197102000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,13 +570,13 @@
         <v>32.149985999999998</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -587,13 +587,13 @@
         <v>32.153626000000003</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -604,13 +604,13 @@
         <v>32.152264000000002</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,13 +621,13 @@
         <v>32.149619999999999</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>32.147635999999999</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,13 +655,13 @@
         <v>32.147945</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,13 +672,13 @@
         <v>32.154221</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,13 +689,13 @@
         <v>32.154269999999997</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -706,13 +706,13 @@
         <v>32.143977999999997</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -723,13 +723,13 @@
         <v>32.144005</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -740,13 +740,13 @@
         <v>32.118416000000003</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -757,13 +757,13 @@
         <v>32.116028</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -774,13 +774,13 @@
         <v>32.117600000000003</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -791,13 +791,13 @@
         <v>32.115684999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -808,13 +808,13 @@
         <v>32.116467</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -825,13 +825,13 @@
         <v>32.114322999999999</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,13 +842,13 @@
         <v>32.108378999999999</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -859,13 +859,13 @@
         <v>32.108787999999997</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>32.110424000000002</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,13 +893,13 @@
         <v>32.114657999999999</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D31">
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,13 +910,13 @@
         <v>32.105269999999997</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -927,13 +927,13 @@
         <v>32.106791999999999</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -944,13 +944,13 @@
         <v>32.110881999999997</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -961,13 +961,13 @@
         <v>32.121487000000002</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -978,13 +978,13 @@
         <v>32.121093999999999</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,13 +995,13 @@
         <v>32.119788999999997</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1012,13 +1012,13 @@
         <v>32.119705000000003</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1029,13 +1029,13 @@
         <v>32.116081000000001</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1046,13 +1046,13 @@
         <v>32.061855000000001</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1063,13 +1063,13 @@
         <v>32.059939999999997</v>
       </c>
       <c r="C41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1080,13 +1080,13 @@
         <v>32.066273000000002</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1097,13 +1097,13 @@
         <v>32.066291999999997</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1114,13 +1114,13 @@
         <v>32.067855999999999</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1131,13 +1131,13 @@
         <v>32.070808</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,13 +1148,13 @@
         <v>32.070751000000001</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1165,13 +1165,13 @@
         <v>32.073791999999997</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1182,13 +1182,13 @@
         <v>32.079822999999998</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,13 +1199,13 @@
         <v>32.079734999999999</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49">
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,13 +1216,13 @@
         <v>32.078730999999998</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50">
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1233,13 +1233,13 @@
         <v>32.082329000000001</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1250,13 +1250,13 @@
         <v>32.082965999999999</v>
       </c>
       <c r="C52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1267,13 +1267,13 @@
         <v>32.098564000000003</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1284,13 +1284,13 @@
         <v>32.1036</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1301,13 +1301,13 @@
         <v>32.103596000000003</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1318,13 +1318,13 @@
         <v>32.116947000000003</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1335,13 +1335,13 @@
         <v>32.116970000000002</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57">
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -1352,13 +1352,13 @@
         <v>32.118941999999997</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -1369,13 +1369,13 @@
         <v>32.089652999999998</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59">
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -1386,13 +1386,13 @@
         <v>32.089657000000003</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60">
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2DFA87-CD2F-41B6-8C14-24C679252668}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A84BA5-EED0-4AF2-AFDB-CD45E7A4D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$E$389</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="8">
   <si>
     <t>lat</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">lng </t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
   </si>
 </sst>
 </file>
@@ -81,7 +87,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -363,26 +370,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
@@ -394,13 +402,13 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>32.247452000000003</v>
+      </c>
+      <c r="B2">
         <v>35.042763000000001</v>
       </c>
-      <c r="B2">
-        <v>32.247452000000003</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -411,13 +419,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
+        <v>32.243285999999998</v>
+      </c>
+      <c r="B3">
         <v>35.047854999999998</v>
       </c>
-      <c r="B3">
-        <v>32.243285999999998</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -428,13 +436,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>32.242579999999997</v>
+      </c>
+      <c r="B4">
         <v>35.051341999999998</v>
       </c>
-      <c r="B4">
-        <v>32.242579999999997</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -445,13 +453,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>32.242553999999998</v>
+      </c>
+      <c r="B5">
         <v>35.051322999999996</v>
       </c>
-      <c r="B5">
-        <v>32.242553999999998</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -462,13 +470,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>32.195805</v>
+      </c>
+      <c r="B6">
         <v>35.008330999999998</v>
       </c>
-      <c r="B6">
-        <v>32.195805</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
+      <c r="C6" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -479,13 +487,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>32.199584999999999</v>
+      </c>
+      <c r="B7">
         <v>35.011901999999999</v>
       </c>
-      <c r="B7">
-        <v>32.199584999999999</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -496,13 +504,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>32.19849</v>
+      </c>
+      <c r="B8">
         <v>35.009158999999997</v>
       </c>
-      <c r="B8">
-        <v>32.19849</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
+      <c r="C8" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -513,13 +521,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>32.199309999999997</v>
+      </c>
+      <c r="B9">
         <v>35.006588000000001</v>
       </c>
-      <c r="B9">
-        <v>32.199309999999997</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -530,13 +538,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>32.194961999999997</v>
+      </c>
+      <c r="B10">
         <v>35.010544000000003</v>
       </c>
-      <c r="B10">
-        <v>32.194961999999997</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
+      <c r="C10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -547,13 +555,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>32.197102000000001</v>
+      </c>
+      <c r="B11">
         <v>35.010688999999999</v>
       </c>
-      <c r="B11">
-        <v>32.197102000000001</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -564,13 +572,13 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>32.149985999999998</v>
+      </c>
+      <c r="B12">
         <v>35.115482</v>
       </c>
-      <c r="B12">
-        <v>32.149985999999998</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -581,13 +589,13 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>32.153626000000003</v>
+      </c>
+      <c r="B13">
         <v>35.116244999999999</v>
       </c>
-      <c r="B13">
-        <v>32.153626000000003</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -598,13 +606,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>32.152264000000002</v>
+      </c>
+      <c r="B14">
         <v>35.115302999999997</v>
       </c>
-      <c r="B14">
-        <v>32.152264000000002</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
+      <c r="C14" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -615,13 +623,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>32.149619999999999</v>
+      </c>
+      <c r="B15">
         <v>35.114238999999998</v>
       </c>
-      <c r="B15">
-        <v>32.149619999999999</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
+      <c r="C15" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -632,13 +640,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>32.147635999999999</v>
+      </c>
+      <c r="B16">
         <v>35.113669999999999</v>
       </c>
-      <c r="B16">
-        <v>32.147635999999999</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -649,13 +657,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>32.147945</v>
+      </c>
+      <c r="B17">
         <v>35.113827000000001</v>
       </c>
-      <c r="B17">
-        <v>32.147945</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
+      <c r="C17" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -666,13 +674,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>32.154221</v>
+      </c>
+      <c r="B18">
         <v>35.101852000000001</v>
       </c>
-      <c r="B18">
-        <v>32.154221</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
+      <c r="C18" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -683,13 +691,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>32.154269999999997</v>
+      </c>
+      <c r="B19">
         <v>35.101447999999998</v>
       </c>
-      <c r="B19">
-        <v>32.154269999999997</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -700,13 +708,13 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>32.143977999999997</v>
+      </c>
+      <c r="B20">
         <v>35.105258999999997</v>
       </c>
-      <c r="B20">
-        <v>32.143977999999997</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
+      <c r="C20" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -717,13 +725,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>32.144005</v>
+      </c>
+      <c r="B21">
         <v>35.105251000000003</v>
       </c>
-      <c r="B21">
-        <v>32.144005</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
+      <c r="C21" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -734,13 +742,13 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>32.118416000000003</v>
+      </c>
+      <c r="B22">
         <v>35.128284999999998</v>
       </c>
-      <c r="B22">
-        <v>32.118416000000003</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
+      <c r="C22" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -751,13 +759,13 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>32.116028</v>
+      </c>
+      <c r="B23">
         <v>35.129654000000002</v>
       </c>
-      <c r="B23">
-        <v>32.116028</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
+      <c r="C23" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -768,13 +776,13 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>32.117600000000003</v>
+      </c>
+      <c r="B24">
         <v>35.127419000000003</v>
       </c>
-      <c r="B24">
-        <v>32.117600000000003</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
+      <c r="C24" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -785,13 +793,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>32.115684999999999</v>
+      </c>
+      <c r="B25">
         <v>35.115729999999999</v>
       </c>
-      <c r="B25">
-        <v>32.115684999999999</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
+      <c r="C25" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -802,13 +810,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>32.116467</v>
+      </c>
+      <c r="B26">
         <v>35.113791999999997</v>
       </c>
-      <c r="B26">
-        <v>32.116467</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
+      <c r="C26" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -819,13 +827,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>32.114322999999999</v>
+      </c>
+      <c r="B27">
         <v>35.117516000000002</v>
       </c>
-      <c r="B27">
-        <v>32.114322999999999</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
+      <c r="C27" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -836,13 +844,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>32.108378999999999</v>
+      </c>
+      <c r="B28">
         <v>35.108677</v>
       </c>
-      <c r="B28">
-        <v>32.108378999999999</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
+      <c r="C28" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -853,13 +861,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>32.108787999999997</v>
+      </c>
+      <c r="B29">
         <v>35.107883999999999</v>
       </c>
-      <c r="B29">
-        <v>32.108787999999997</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
+      <c r="C29" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -870,13 +878,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>32.110424000000002</v>
+      </c>
+      <c r="B30">
         <v>35.105350999999999</v>
       </c>
-      <c r="B30">
-        <v>32.110424000000002</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
+      <c r="C30" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -887,13 +895,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
+        <v>32.114657999999999</v>
+      </c>
+      <c r="B31">
         <v>35.103794000000001</v>
       </c>
-      <c r="B31">
-        <v>32.114657999999999</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
+      <c r="C31" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -904,13 +912,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
+        <v>32.105269999999997</v>
+      </c>
+      <c r="B32">
         <v>35.104992000000003</v>
       </c>
-      <c r="B32">
-        <v>32.105269999999997</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
+      <c r="C32" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -921,13 +929,13 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
+        <v>32.106791999999999</v>
+      </c>
+      <c r="B33">
         <v>35.105541000000002</v>
       </c>
-      <c r="B33">
-        <v>32.106791999999999</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
+      <c r="C33" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -938,13 +946,13 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
+        <v>32.110881999999997</v>
+      </c>
+      <c r="B34">
         <v>35.118141000000001</v>
       </c>
-      <c r="B34">
-        <v>32.110881999999997</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
+      <c r="C34" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -955,13 +963,13 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
+        <v>32.121487000000002</v>
+      </c>
+      <c r="B35">
         <v>35.049294000000003</v>
       </c>
-      <c r="B35">
-        <v>32.121487000000002</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
+      <c r="C35" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -972,13 +980,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
+        <v>32.121093999999999</v>
+      </c>
+      <c r="B36">
         <v>35.045948000000003</v>
       </c>
-      <c r="B36">
-        <v>32.121093999999999</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
+      <c r="C36" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -989,13 +997,13 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>32.119788999999997</v>
+      </c>
+      <c r="B37">
         <v>35.047165</v>
       </c>
-      <c r="B37">
-        <v>32.119788999999997</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
+      <c r="C37" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1006,13 +1014,13 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
+        <v>32.119705000000003</v>
+      </c>
+      <c r="B38">
         <v>35.047367000000001</v>
       </c>
-      <c r="B38">
-        <v>32.119705000000003</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
+      <c r="C38" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1023,13 +1031,13 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>32.116081000000001</v>
+      </c>
+      <c r="B39">
         <v>35.043689999999998</v>
       </c>
-      <c r="B39">
-        <v>32.116081000000001</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
+      <c r="C39" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1040,13 +1048,13 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>32.061855000000001</v>
+      </c>
+      <c r="B40">
         <v>35.051983</v>
       </c>
-      <c r="B40">
-        <v>32.061855000000001</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
+      <c r="C40" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1057,13 +1065,13 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
+        <v>32.059939999999997</v>
+      </c>
+      <c r="B41">
         <v>35.050426999999999</v>
       </c>
-      <c r="B41">
-        <v>32.059939999999997</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
+      <c r="C41" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1074,13 +1082,13 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
+        <v>32.066273000000002</v>
+      </c>
+      <c r="B42">
         <v>35.047131</v>
       </c>
-      <c r="B42">
-        <v>32.066273000000002</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
+      <c r="C42" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1091,13 +1099,13 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>32.066291999999997</v>
+      </c>
+      <c r="B43">
         <v>35.047137999999997</v>
       </c>
-      <c r="B43">
-        <v>32.066291999999997</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
+      <c r="C43" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1108,13 +1116,13 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
+        <v>32.067855999999999</v>
+      </c>
+      <c r="B44">
         <v>35.049197999999997</v>
       </c>
-      <c r="B44">
-        <v>32.067855999999999</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
+      <c r="C44" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1125,13 +1133,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
+        <v>32.070808</v>
+      </c>
+      <c r="B45">
         <v>35.057079000000002</v>
       </c>
-      <c r="B45">
-        <v>32.070808</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1142,13 +1150,13 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>32.070751000000001</v>
+      </c>
+      <c r="B46">
         <v>35.061241000000003</v>
       </c>
-      <c r="B46">
-        <v>32.070751000000001</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
+      <c r="C46" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1159,13 +1167,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
+        <v>32.073791999999997</v>
+      </c>
+      <c r="B47">
         <v>35.064231999999997</v>
       </c>
-      <c r="B47">
-        <v>32.073791999999997</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
+      <c r="C47" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1176,13 +1184,13 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
+        <v>32.079822999999998</v>
+      </c>
+      <c r="B48">
         <v>35.087864000000003</v>
       </c>
-      <c r="B48">
-        <v>32.079822999999998</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
+      <c r="C48" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1193,13 +1201,13 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
+        <v>32.079734999999999</v>
+      </c>
+      <c r="B49">
         <v>35.084933999999997</v>
       </c>
-      <c r="B49">
-        <v>32.079734999999999</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
+      <c r="C49" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1210,13 +1218,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
+        <v>32.078730999999998</v>
+      </c>
+      <c r="B50">
         <v>35.085498999999999</v>
       </c>
-      <c r="B50">
-        <v>32.078730999999998</v>
-      </c>
-      <c r="C50" t="s">
-        <v>4</v>
+      <c r="C50" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1227,13 +1235,13 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
+        <v>32.082329000000001</v>
+      </c>
+      <c r="B51">
         <v>35.092486999999998</v>
       </c>
-      <c r="B51">
-        <v>32.082329000000001</v>
-      </c>
-      <c r="C51" t="s">
-        <v>4</v>
+      <c r="C51" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1244,13 +1252,13 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
+        <v>32.082965999999999</v>
+      </c>
+      <c r="B52">
         <v>35.090054000000002</v>
       </c>
-      <c r="B52">
-        <v>32.082965999999999</v>
-      </c>
-      <c r="C52" t="s">
-        <v>4</v>
+      <c r="C52" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1261,13 +1269,13 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
+        <v>32.098564000000003</v>
+      </c>
+      <c r="B53">
         <v>35.236828000000003</v>
       </c>
-      <c r="B53">
-        <v>32.098564000000003</v>
-      </c>
-      <c r="C53" t="s">
-        <v>4</v>
+      <c r="C53" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1278,13 +1286,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
+        <v>32.1036</v>
+      </c>
+      <c r="B54">
         <v>35.257351</v>
       </c>
-      <c r="B54">
-        <v>32.1036</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
+      <c r="C54" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1295,13 +1303,13 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
+        <v>32.103596000000003</v>
+      </c>
+      <c r="B55">
         <v>35.257347000000003</v>
       </c>
-      <c r="B55">
-        <v>32.103596000000003</v>
-      </c>
-      <c r="C55" t="s">
-        <v>4</v>
+      <c r="C55" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1312,13 +1320,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
+        <v>32.116947000000003</v>
+      </c>
+      <c r="B56">
         <v>35.251190000000001</v>
       </c>
-      <c r="B56">
-        <v>32.116947000000003</v>
-      </c>
-      <c r="C56" t="s">
-        <v>4</v>
+      <c r="C56" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1329,13 +1337,13 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>32.116970000000002</v>
+      </c>
+      <c r="B57">
         <v>35.251204999999999</v>
       </c>
-      <c r="B57">
-        <v>32.116970000000002</v>
-      </c>
-      <c r="C57" t="s">
-        <v>4</v>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1346,13 +1354,13 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
+        <v>32.118941999999997</v>
+      </c>
+      <c r="B58">
         <v>35.251133000000003</v>
       </c>
-      <c r="B58">
-        <v>32.118941999999997</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
+      <c r="C58" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1363,13 +1371,13 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
+        <v>32.089652999999998</v>
+      </c>
+      <c r="B59">
         <v>35.342193999999999</v>
       </c>
-      <c r="B59">
-        <v>32.089652999999998</v>
-      </c>
-      <c r="C59" t="s">
-        <v>4</v>
+      <c r="C59" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1380,13 +1388,13 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
+        <v>32.089657000000003</v>
+      </c>
+      <c r="B60">
         <v>35.342185999999998</v>
       </c>
-      <c r="B60">
-        <v>32.089657000000003</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4</v>
+      <c r="C60" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D60">
         <v>0</v>
@@ -1394,6 +1402,993 @@
       <c r="E60" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C262" s="1"/>
+    </row>
+    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C263" s="1"/>
+    </row>
+    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C264" s="1"/>
+    </row>
+    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C265" s="1"/>
+    </row>
+    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C266" s="1"/>
+    </row>
+    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C267" s="1"/>
+    </row>
+    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C269" s="1"/>
+    </row>
+    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C270" s="1"/>
+    </row>
+    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C271" s="1"/>
+    </row>
+    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C272" s="1"/>
+    </row>
+    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C273" s="1"/>
+    </row>
+    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C274" s="1"/>
+    </row>
+    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C276" s="1"/>
+    </row>
+    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C277" s="1"/>
+    </row>
+    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C278" s="1"/>
+    </row>
+    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C279" s="1"/>
+    </row>
+    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C280" s="1"/>
+    </row>
+    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C281" s="1"/>
+    </row>
+    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C283" s="1"/>
+    </row>
+    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C284" s="1"/>
+    </row>
+    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C285" s="1"/>
+    </row>
+    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C286" s="1"/>
+    </row>
+    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C287" s="1"/>
+    </row>
+    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C288" s="1"/>
+    </row>
+    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C290" s="1"/>
+    </row>
+    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C291" s="1"/>
+    </row>
+    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C292" s="1"/>
+    </row>
+    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C293" s="1"/>
+    </row>
+    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C294" s="1"/>
+    </row>
+    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C295" s="1"/>
+    </row>
+    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C297" s="1"/>
+    </row>
+    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C298" s="1"/>
+    </row>
+    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C299" s="1"/>
+    </row>
+    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C300" s="1"/>
+    </row>
+    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C301" s="1"/>
+    </row>
+    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C302" s="1"/>
+    </row>
+    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C304" s="1"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="1"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="1"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="1"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="1"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="1"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="1"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="1"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="1"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="1"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="1"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="1"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="1"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="1"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="1"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="1"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="1"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="1"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="1"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="1"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="1"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="1"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="1"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="1"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C332" s="1"/>
+    </row>
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C333" s="1"/>
+    </row>
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C334" s="1"/>
+    </row>
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C335" s="1"/>
+    </row>
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C336" s="1"/>
+    </row>
+    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C337" s="1"/>
+    </row>
+    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C339" s="1"/>
+    </row>
+    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C340" s="1"/>
+    </row>
+    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C341" s="1"/>
+    </row>
+    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C342" s="1"/>
+    </row>
+    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C343" s="1"/>
+    </row>
+    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C344" s="1"/>
+    </row>
+    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C346" s="1"/>
+    </row>
+    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C347" s="1"/>
+    </row>
+    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C348" s="1"/>
+    </row>
+    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C349" s="1"/>
+    </row>
+    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C350" s="1"/>
+    </row>
+    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C351" s="1"/>
+    </row>
+    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C353" s="1"/>
+    </row>
+    <row r="354" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C354" s="1"/>
+    </row>
+    <row r="355" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C355" s="1"/>
+    </row>
+    <row r="356" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C356" s="1"/>
+    </row>
+    <row r="357" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C357" s="1"/>
+    </row>
+    <row r="358" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C358" s="1"/>
+    </row>
+    <row r="359" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C360" s="1"/>
+    </row>
+    <row r="361" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C361" s="1"/>
+    </row>
+    <row r="362" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C362" s="1"/>
+    </row>
+    <row r="363" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C363" s="1"/>
+    </row>
+    <row r="364" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C364" s="1"/>
+    </row>
+    <row r="365" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C365" s="1"/>
+    </row>
+    <row r="366" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C367" s="1"/>
+    </row>
+    <row r="368" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C368" s="1"/>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C369" s="1"/>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C370" s="1"/>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C371" s="1"/>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C372" s="1"/>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C373" s="1"/>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C374" s="1"/>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C375" s="1"/>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C376" s="1"/>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C377" s="1"/>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C378" s="1"/>
+    </row>
+    <row r="379" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C379" s="1"/>
+    </row>
+    <row r="380" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C380" s="1"/>
+    </row>
+    <row r="381" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C381" s="1"/>
+    </row>
+    <row r="382" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C382" s="1"/>
+    </row>
+    <row r="383" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C383" s="1"/>
+    </row>
+    <row r="384" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C384" s="1"/>
+    </row>
+    <row r="385" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C385" s="1"/>
+    </row>
+    <row r="386" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C386" s="1"/>
+    </row>
+    <row r="387" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C387" s="1"/>
+    </row>
+    <row r="388" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C388" s="1"/>
+    </row>
+    <row r="389" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C389" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A84BA5-EED0-4AF2-AFDB-CD45E7A4D33D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44197E-0444-43ED-8579-DDAFA324C1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA44197E-0444-43ED-8579-DDAFA324C1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD2B4C-BAD4-4045-8BF2-CCA25347802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -373,7 +373,7 @@
   <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD2B4C-BAD4-4045-8BF2-CCA25347802F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D46AE-C36B-4C65-A70F-903550D7756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,13 +45,13 @@
     <t>Shmron</t>
   </si>
   <si>
-    <t xml:space="preserve">lng </t>
-  </si>
-  <si>
     <t>WIND</t>
   </si>
   <si>
     <t>SOLAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
   </si>
 </sst>
 </file>
@@ -373,7 +373,7 @@
   <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,7 +388,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -408,7 +408,7 @@
         <v>35.042763000000001</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -425,7 +425,7 @@
         <v>35.047854999999998</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>35.051341999999998</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -459,7 +459,7 @@
         <v>35.051322999999996</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -476,7 +476,7 @@
         <v>35.008330999999998</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>35.011901999999999</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -510,7 +510,7 @@
         <v>35.009158999999997</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>35.006588000000001</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -544,7 +544,7 @@
         <v>35.010544000000003</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>35.010688999999999</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>35.115482</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>35.116244999999999</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -612,7 +612,7 @@
         <v>35.115302999999997</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -629,7 +629,7 @@
         <v>35.114238999999998</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>35.113669999999999</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>35.113827000000001</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>35.101852000000001</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -697,7 +697,7 @@
         <v>35.101447999999998</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -714,7 +714,7 @@
         <v>35.105258999999997</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>35.105251000000003</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>35.128284999999998</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -765,7 +765,7 @@
         <v>35.129654000000002</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -782,7 +782,7 @@
         <v>35.127419000000003</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -799,7 +799,7 @@
         <v>35.115729999999999</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -816,7 +816,7 @@
         <v>35.113791999999997</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>35.117516000000002</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -850,7 +850,7 @@
         <v>35.108677</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>35.107883999999999</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -884,7 +884,7 @@
         <v>35.105350999999999</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>35.103794000000001</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>35.104992000000003</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>35.105541000000002</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>35.118141000000001</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -969,7 +969,7 @@
         <v>35.049294000000003</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>35.045948000000003</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>35.047165</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>35.047367000000001</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>35.043689999999998</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>35.051983</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>35.050426999999999</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>35.047131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>35.047137999999997</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>35.049197999999997</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>35.057079000000002</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>35.061241000000003</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>35.064231999999997</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>35.087864000000003</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -1207,7 +1207,7 @@
         <v>35.084933999999997</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>35.085498999999999</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -1241,7 +1241,7 @@
         <v>35.092486999999998</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -1258,7 +1258,7 @@
         <v>35.090054000000002</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>35.236828000000003</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         <v>35.257351</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>35.257347000000003</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -1326,7 +1326,7 @@
         <v>35.251190000000001</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>35.251204999999999</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>35.251133000000003</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -1377,7 +1377,7 @@
         <v>35.342193999999999</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>35.342185999999998</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>0</v>

--- a/power_plants_2.xlsx
+++ b/power_plants_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\or_cohen\PycharmProjects\TestGithub1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18D46AE-C36B-4C65-A70F-903550D7756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9039A11-9BE4-4F88-803C-97C6397C8EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
     <t>SOLAR</t>
   </si>
   <si>
-    <t xml:space="preserve">a </t>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -373,12 +373,13 @@
   <dimension ref="A1:E389"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
   </cols>
